--- a/Danh Sách Nhóm 2 Web.xlsx
+++ b/Danh Sách Nhóm 2 Web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ae1155075de9a1b/Tài liệu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{19607709-26B2-4756-A4EE-B3F43E77D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B09E8BD-2D2A-4105-9E61-A35D1274222E}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{19607709-26B2-4756-A4EE-B3F43E77D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A1E8D7E-2057-48B2-ABA6-007FFC72C778}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{38ED809D-3E27-486B-922D-C8B622EACB57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Thái Nguyễn Thanh</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>GROUP 2 Môn: Lập trình Web và ứng dụng nâng cao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Nguyễn Thành </t>
+  </si>
+  <si>
+    <t>Luân</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -165,6 +174,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EFB161-0C19-4A01-B589-33951A14589B}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,6 +570,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3122411119</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
